--- a/metadatalocation.xlsx
+++ b/metadatalocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/VAULTS/BA THESIS/Codes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C25D5FA-5A49-0E45-A86F-B53F5CAC54D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE277064-F19C-CB40-8A22-2441FF07263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1120" windowWidth="26340" windowHeight="15840" xr2:uid="{7A5E0C24-EC50-BF4E-A0C6-90F8CD4A6738}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Locations</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Beijing</t>
   </si>
@@ -71,6 +62,12 @@
   </si>
   <si>
     <t>Harbin</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -933,24 +930,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66916B8D-182A-3345-A367-092950833031}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>39.904201999999998</v>
@@ -961,7 +957,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>30.572814999999999</v>
@@ -972,7 +968,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>26.647660999999999</v>
@@ -983,7 +979,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>28.682891999999999</v>
@@ -994,7 +990,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>23.29541</v>
@@ -1005,7 +1001,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>37.87059</v>
@@ -1016,7 +1012,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>32.017341999999999</v>
@@ -1027,7 +1023,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>27.829796000000002</v>
@@ -1038,7 +1034,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>36.617134</v>
@@ -1049,7 +1045,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>31.820591</v>
@@ -1060,7 +1056,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>22.666473</v>
@@ -1071,7 +1067,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>30.274083999999998</v>
@@ -1082,7 +1078,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>30.592849999999999</v>
@@ -1093,7 +1089,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>45.803775999999999</v>

--- a/metadatalocation.xlsx
+++ b/metadatalocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE277064-F19C-CB40-8A22-2441FF07263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5432D054-FC49-644B-B9FA-15D6FECD0FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1120" windowWidth="26340" windowHeight="15840" xr2:uid="{7A5E0C24-EC50-BF4E-A0C6-90F8CD4A6738}"/>
+    <workbookView xWindow="14020" yWindow="3780" windowWidth="26340" windowHeight="15840" xr2:uid="{7A5E0C24-EC50-BF4E-A0C6-90F8CD4A6738}"/>
   </bookViews>
   <sheets>
     <sheet name="metadatalocation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Beijing</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>Xian</t>
   </si>
 </sst>
 </file>
@@ -928,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66916B8D-182A-3345-A367-092950833031}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1101,17 @@
         <v>126.534966</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>34.341576000000003</v>
+      </c>
+      <c r="C16">
+        <v>108.939774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metadatalocation.xlsx
+++ b/metadatalocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/dialects_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5432D054-FC49-644B-B9FA-15D6FECD0FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CE440-1A76-EE43-B1BD-06BAD2154467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="3780" windowWidth="26340" windowHeight="15840" xr2:uid="{7A5E0C24-EC50-BF4E-A0C6-90F8CD4A6738}"/>
+    <workbookView xWindow="19420" yWindow="1780" windowWidth="13520" windowHeight="16940" xr2:uid="{7A5E0C24-EC50-BF4E-A0C6-90F8CD4A6738}"/>
   </bookViews>
   <sheets>
     <sheet name="metadatalocation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Beijing</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Xian</t>
+  </si>
+  <si>
+    <t>Wulumuqi</t>
+  </si>
+  <si>
+    <t>Wenzhou</t>
   </si>
 </sst>
 </file>
@@ -931,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66916B8D-182A-3345-A367-092950833031}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.017341999999999</v>
+        <v>22.396426999999999</v>
       </c>
       <c r="C8">
-        <v>112.149147</v>
+        <v>114.109497</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,6 +1116,28 @@
       </c>
       <c r="C16">
         <v>108.939774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>43.825592</v>
+      </c>
+      <c r="C17">
+        <v>87.616851999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>28.002700999999998</v>
+      </c>
+      <c r="C18">
+        <v>120.647919</v>
       </c>
     </row>
   </sheetData>
